--- a/biology/Zoologie/Plecia_bucklandi/Plecia_bucklandi.xlsx
+++ b/biology/Zoologie/Plecia_bucklandi/Plecia_bucklandi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plecia dilatativentris, Plecia edwardsi, Plecia elegans, Plecia gracilis, Protomyia bucklandi, Protomyia elegans, Protomyia gracilis, Penthetria bucklandi, Penthetri edwardsi, Penthetria elegans, Penthetria gracilis, Bibio edwardsi
 Plecia bucklandi est une espèce fossile d'insectes diptères de la famille des Bibionidae et du genre Plecia.
@@ -514,65 +526,286 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Descriptions initiales
-L'espèce Protomyia bucklandi est publiée par Oswald Heer en 1849[1].
-Les espèces Protomyia elegans et Protomyia gracilis sont décrites par Oswald Heer en 1856[2].
-L'espèce Bibio edwardsii est décrite par Émile Oustalet en 1870[3].
-L'espèce Plecia dilativentris est publiée par Nicolas Théobald en 1937[4]. Cet holotype C84 de l'ère Cénozoïque, et de l'époque Miocène et Oligocène (37,2 à 23,3 Ma) fait partie de la collection Mieg du musée de Bâle et vient de Kleinkembs dans le pays de Bade en Allemagne[5],[4].
-Renommages
-En 1878 Charles Jules Edmée Brongniart renomme Bibio edwardsii en Plecia edwarsii[6].
+          <t>Descriptions initiales</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Protomyia bucklandi est publiée par Oswald Heer en 1849.
+Les espèces Protomyia elegans et Protomyia gracilis sont décrites par Oswald Heer en 1856.
+L'espèce Bibio edwardsii est décrite par Émile Oustalet en 1870.
+L'espèce Plecia dilativentris est publiée par Nicolas Théobald en 1937. Cet holotype C84 de l'ère Cénozoïque, et de l'époque Miocène et Oligocène (37,2 à 23,3 Ma) fait partie de la collection Mieg du musée de Bâle et vient de Kleinkembs dans le pays de Bade en Allemagne,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Plecia_bucklandi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_bucklandi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Renommages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1878 Charles Jules Edmée Brongniart renomme Bibio edwardsii en Plecia edwarsii.
 En 1891 Bruno Förster renomme Protomyia bucklandi en Plecia bucklandi.
-En 1937 Nicolas Théobald renomme, vers le genre Plecia, Protomyia elegans en Plecia elegans et Protomyia gracilis en Plecia gracilis, confirme Plecia edwarsii dans le genre Plecia en même temps que la déclaration initiale de Plecia dilatitventris[7].
-En 1994 N. L. Eventhuis renomme, vers le genre Penthetria, Bibio edwardsii en Penthetria edwardsi, Protomyia bucklandi en Penthetria bucklandi, Protomyia elegans en Penthetria elegans et Protomyia gracilis en Penthetria gracilis[8].
-En 2001 J. Gee, A. Nel, J. Menier et G. De Ploëg restaurent ou renomment Bibio edwardsii en Plecia edwardsii[9].
-En 2017 John Skartveit et André Nel renomment Protomyia bucklandi en Plecia bucklandi[10],[4].
-Synonymes et confirmations du genre Plecia
-En 2017 John Skartveit et André Nel déclarent synonymes de Plecia bucklandi les quatre taxons Bibio edwardsii, Plecia dilatativentris, Protomyia elegans et Protomyia gracilis[10],[11].
-Ces déclarations sont confirmées ou reprises par John Skartveit et K. Krizmanić en 2020[12],[4],[13].
-Répartition
-Selon Paleobiology Database en 2023, seize collections pour vingt-neuf occurrences de fossiles sont référencées dont une collection du Miocène en Croatie (Radoboj) et quinze de l'Oligocène en France, provenant de Céreste dans les Alpes-de-Haute-Provence, d'Aix-en-Provence dans les Bouches-du-Rhône, de Brunstatt dans le Haut-Rhin, de Corent dans le Puy-de-Dôme dont quelques-unes sont conservées au MNHNP[14].
-Étymologie
-L'épithète spécifique bucklandi fait hommage au géologue et paléontologue britannique William Buckland (1784-1856).
+En 1937 Nicolas Théobald renomme, vers le genre Plecia, Protomyia elegans en Plecia elegans et Protomyia gracilis en Plecia gracilis, confirme Plecia edwarsii dans le genre Plecia en même temps que la déclaration initiale de Plecia dilatitventris.
+En 1994 N. L. Eventhuis renomme, vers le genre Penthetria, Bibio edwardsii en Penthetria edwardsi, Protomyia bucklandi en Penthetria bucklandi, Protomyia elegans en Penthetria elegans et Protomyia gracilis en Penthetria gracilis.
+En 2001 J. Gee, A. Nel, J. Menier et G. De Ploëg restaurent ou renomment Bibio edwardsii en Plecia edwardsii.
+En 2017 John Skartveit et André Nel renomment Protomyia bucklandi en Plecia bucklandi,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plecia_bucklandi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_bucklandi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes et confirmations du genre Plecia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017 John Skartveit et André Nel déclarent synonymes de Plecia bucklandi les quatre taxons Bibio edwardsii, Plecia dilatativentris, Protomyia elegans et Protomyia gracilis,.
+Ces déclarations sont confirmées ou reprises par John Skartveit et K. Krizmanić en 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Plecia_bucklandi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_bucklandi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, seize collections pour vingt-neuf occurrences de fossiles sont référencées dont une collection du Miocène en Croatie (Radoboj) et quinze de l'Oligocène en France, provenant de Céreste dans les Alpes-de-Haute-Provence, d'Aix-en-Provence dans les Bouches-du-Rhône, de Brunstatt dans le Haut-Rhin, de Corent dans le Puy-de-Dôme dont quelques-unes sont conservées au MNHNP.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Plecia_bucklandi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_bucklandi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique bucklandi fait hommage au géologue et paléontologue britannique William Buckland (1784-1856).
 L'épithète spécifique edwarsi fait hommage au médecin, professeur et zoologiste français Alphonse Milne-Edwards (1835-1900), son contemporain et prédécesseur sur la chaire de mammalogie, et collecteur d'échantillon de cette espèce conservée au MNHNP.
 Les épithètes spécifiques en latin dilatativentris, elegans, gracilis signifient respectivement  « ventru », « élégant », « mince ».
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Plecia_bucklandi</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Plecia_bucklandi</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937 de Plecia dilatativentris[15],[note 1] :
-« Insecte noirâtre, ailes brun foncé. Tête petite, subphérique, noire ; deux antennes courtes, cordiformes ; yeux non contigus. Thorax ovale. Abdomen gros, ovoïde, finement velu, appendices génitaux à l'extrémité. Pattes bien conservées, fémurs renflés ; tibias cylindriques, deux cils apicaux ; tarses de cinq articles. Balanciers à tige courte. Ailes avec nervation bien visible, du type Plecia ; branche antérieure de Rs recourbée. »[15].
-Dimensions
-La longueur du corps est de 7,5 mm ; les ailes ont une longueur de 6,5 mm[15].
-Affinités
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937 de Plecia dilatativentris,[note 1] :
+« Insecte noirâtre, ailes brun foncé. Tête petite, subphérique, noire ; deux antennes courtes, cordiformes ; yeux non contigus. Thorax ovale. Abdomen gros, ovoïde, finement velu, appendices génitaux à l'extrémité. Pattes bien conservées, fémurs renflés ; tibias cylindriques, deux cils apicaux ; tarses de cinq articles. Balanciers à tige courte. Ailes avec nervation bien visible, du type Plecia ; branche antérieure de Rs recourbée. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Plecia_bucklandi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_bucklandi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur du corps est de 7,5 mm ; les ailes ont une longueur de 6,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Plecia_bucklandi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_bucklandi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pour P. dilativentris : 
-« L'espèce est voisine de P. lugens, mais elle s'en distingue par la plus grande largeur du thorax et de l'abdomen. »[15].
+« L'espèce est voisine de P. lugens, mais elle s'en distingue par la plus grande largeur du thorax et de l'abdomen. ».
 </t>
         </is>
       </c>
